--- a/medicine/Mort/Railway_Chateau_Cemetery/Railway_Chateau_Cemetery.xlsx
+++ b/medicine/Mort/Railway_Chateau_Cemetery/Railway_Chateau_Cemetery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Railway Cemetery Cemetery est un cimetière militaire britannique avec tombe de la Première Guerre mondiale, situé dans le village belge Vlamertinge, un arrondissement d'Ypres. 
 Le cimetière est situé à 2,4 km à l'est de l'église de Vlamertinge et à 2 km à l'ouest de la Grand-Place d'Ypres. À travers un pont, une clôture et un chemin d'environ 50 mètres de long, vous arrivez à ce petit cimetière dessiné par William Cowlishaw. Le terrain fait 445 m2. La Croix du Sacrifice est à la fin du chemin où vous entrez dans le lieu.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'origine, ce cimetière s'appelait le cimetière des cabarets de la rue Saint-Augustin ou le cimetière des postes L.4. Mais parce que près d'un château qui a été appelé par le British Railway Chateau (il y avait un chemin de fer à voie étroite), ce cimetière est devenu connu sous son nom actuel. Il a été commencé en novembre 1914 et a été utilisé par intermittence jusqu'à l'automne de 1917 (troisième bataille d'Ypres). Il y a 105 Britanniques, dont 6 ne pouvaient plus être identifiés. Ils appartenaient à différents régiments parce qu'ils étaient rassemblés des champs de bataille autour d'Ypres pendant cette période. Une tombe française a été plus tard enlevée.
 </t>
@@ -544,7 +558,9 @@
           <t>Soldats distingués</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">J.W. Banner, soldat du Worcestershire Regiment a reçu le Distinguished Conduct Medal (DCM).
 Le cimetière a été protégé en tant que monument en 2009.
